--- a/transmission/测试记录.xlsx
+++ b/transmission/测试记录.xlsx
@@ -35,12 +35,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -63,18 +71,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,45 +94,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,9 +107,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,6 +170,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -164,37 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,13 +208,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +340,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,133 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,25 +386,117 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,17 +515,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,25 +545,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,10 +567,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -505,156 +578,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,105 +1102,107 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D8"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="4.45454545454545" customWidth="1"/>
     <col min="2" max="2" width="19.6363636363636" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.5454545454545" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.8181818181818" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+    <row r="2" ht="25" customHeight="1" spans="2:4">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>3470</v>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="1">
-        <v>20</v>
+      <c r="B4" s="5">
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3483</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3470</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="1">
-        <v>30</v>
+      <c r="B5" s="5">
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3507</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3483</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="1">
-        <v>100</v>
+      <c r="B6" s="5">
+        <v>30</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3479</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3507</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="1">
-        <v>1000</v>
+      <c r="B7" s="5">
+        <v>100</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3391</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3479</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="1">
+      <c r="B8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="9" ht="14.75" spans="2:4">
+      <c r="B9" s="7">
         <v>2500</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="8">
         <v>250</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="9">
         <v>3277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/transmission/测试记录.xlsx
+++ b/transmission/测试记录.xlsx
@@ -35,12 +35,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +49,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -56,6 +64,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -65,19 +101,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -85,15 +123,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,56 +146,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,14 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -186,14 +170,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,79 +210,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,110 +400,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -396,82 +410,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="4"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="4"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="4"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,34 +491,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,8 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,8 +547,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -581,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,165 +575,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,7 +1078,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1120,83 +1093,83 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>3470</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>3483</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>3507</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>100</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>10</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3479</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>1000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>100</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3391</v>
       </c>
     </row>
-    <row r="9" ht="14.75" spans="2:4">
-      <c r="B9" s="7">
+    <row r="9" spans="2:4">
+      <c r="B9" s="3">
         <v>2500</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>250</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>3277</v>
       </c>
     </row>
